--- a/CIVICS_Ghana/IO_Ghana/Pumpfed Irrigation for Maize/Charts/1_Required Commodities for producing the wells and pumps.xlsx
+++ b/CIVICS_Ghana/IO_Ghana/Pumpfed Irrigation for Maize/Charts/1_Required Commodities for producing the wells and pumps.xlsx
@@ -55,13 +55,13 @@
     <t>Poultry</t>
   </si>
   <si>
-    <t>Fossil-fuels</t>
-  </si>
-  <si>
     <t>Mining</t>
   </si>
   <si>
     <t>Food and beverages</t>
+  </si>
+  <si>
+    <t>Grain milling</t>
   </si>
   <si>
     <t>Other manufacturing</t>
@@ -489,7 +489,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0.0003987225314858733</v>
+        <v>0.0007220821230191632</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -507,13 +507,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>6.403585034175929e-07</v>
+        <v>1.15968221284235e-06</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2.837090092278061e-05</v>
+        <v>5.137938980759316e-05</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -521,7 +521,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.001567034336403594</v>
+        <v>0.002837881963841937</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.007204161851405e-05</v>
+        <v>1.824035655317857e-05</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.000351288704905528</v>
+        <v>0.0006361799839851301</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -553,7 +553,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>8.180012969205563e-06</v>
+        <v>1.481391359448025e-05</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -571,13 +571,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9.910621256992158e-08</v>
+        <v>1.794802617638425e-07</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.130215126631811e-07</v>
+        <v>1.110175219309895e-06</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -585,7 +585,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>5.777041565124819e-07</v>
+        <v>1.046215800215577e-06</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -603,13 +603,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.25257940908341e-07</v>
+        <v>2.26840768391412e-07</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.932074031989032e-08</v>
+        <v>1.074291944291872e-07</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -617,7 +617,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.001141115856853503</v>
+        <v>0.002205275766755221</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -635,13 +635,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.308643357098241e-07</v>
+        <v>6.319303594182202e-06</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.001004075559649209</v>
+        <v>0.001838067951894118</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -649,7 +649,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>7.660316487090313e-05</v>
+        <v>0.0007091527186275925</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3.058556949042668e-06</v>
+        <v>0.0007544657241851382</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1.087701090796145e-05</v>
+        <v>0.002511425645025156</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -681,7 +681,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.0004192660653643543</v>
+        <v>5.013351778870856e-05</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0004298123517401109</v>
+        <v>2.391972100213025e-05</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.001399156857587514</v>
+        <v>2.243205062768538e-05</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -713,7 +713,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>0.001029652749366505</v>
+        <v>0.001864689814738085</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -731,13 +731,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.00137615901121535</v>
+        <v>0.002492208847343136</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.003502056885736238</v>
+        <v>0.006342186537040106</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -745,7 +745,7 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>9.327980603757169e-05</v>
+        <v>0.0001689287037152098</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -763,13 +763,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5.789938870748301e-05</v>
+        <v>0.0001048551567350842</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.80481918809528e-05</v>
+        <v>0.000141344418011613</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -777,7 +777,7 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>0.003869278252693675</v>
+        <v>0.007007220396133107</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -795,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.002902503096436249</v>
+        <v>0.005256401212022865</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.011605236035507</v>
+        <v>0.02101695493036004</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -809,7 +809,7 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>0.002235691692021646</v>
+        <v>0.00404881308622862</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.003192640070210473</v>
+        <v>0.005781836083770031</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.0007504008569867437</v>
+        <v>0.001358967705868963</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -841,7 +841,7 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>0.01416447599876847</v>
+        <v>0.02565171037986147</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.008153659446179518</v>
+        <v>0.01476618765627791</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.04698421456851065</v>
+        <v>0.08508789627558144</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -873,7 +873,7 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>0.01180984787561101</v>
+        <v>0.0213875047242027</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -891,13 +891,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.01330169703169304</v>
+        <v>0.02408922715221706</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05771096601165482</v>
+        <v>0.104513925261017</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -905,7 +905,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>10.34420896400593</v>
+        <v>18.73324876118954</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -923,13 +923,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>12.74506988538815</v>
+        <v>23.0811815067259</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>102.2055308324088</v>
+        <v>185.0930931997973</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>1.801790129449992e-10</v>
+        <v>3.263022124364284e-10</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.318543521744656e-08</v>
+        <v>7.820834861324566e-08</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -987,13 +987,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6.297334175542346e-05</v>
+        <v>0.0001140440303970536</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.003664068059151759</v>
+        <v>0.006635586985794362</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1019,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>2.29935640749801e-06</v>
+        <v>4.164109187243525e-06</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.001972231879790343</v>
+        <v>0.003571690262106131</v>
       </c>
     </row>
   </sheetData>
